--- a/Test/Epsilon/MSE1000002.xlsx
+++ b/Test/Epsilon/MSE1000002.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,34 +432,31 @@
         <v>0.04172433946336564</v>
       </c>
       <c r="D1" t="n">
-        <v>0.03450460703501348</v>
+        <v>0.03779412400730854</v>
       </c>
       <c r="E1" t="n">
-        <v>0.03350524773094441</v>
+        <v>0.03498310900164334</v>
       </c>
       <c r="F1" t="n">
-        <v>0.03106606728208638</v>
+        <v>0.03348274569210406</v>
       </c>
       <c r="G1" t="n">
-        <v>0.0304794987158404</v>
+        <v>0.03002057737156472</v>
       </c>
       <c r="H1" t="n">
-        <v>0.03031711324494696</v>
+        <v>0.02968467957244611</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0303210502754335</v>
+        <v>0.02954104537364097</v>
       </c>
       <c r="J1" t="n">
-        <v>0.02936795941628652</v>
+        <v>0.0295205514474857</v>
       </c>
       <c r="K1" t="n">
-        <v>0.02899778822745105</v>
+        <v>0.02859944825664688</v>
       </c>
       <c r="L1" t="n">
-        <v>0.02848482223683437</v>
-      </c>
-      <c r="M1" t="n">
-        <v>0.02843380181452163</v>
+        <v>0.02862866442402692</v>
       </c>
     </row>
   </sheetData>
